--- a/train_results.xlsx
+++ b/train_results.xlsx
@@ -488,7 +488,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>2.968795303656317</v>
+        <v>3.188409919706385</v>
       </c>
       <c r="E2" t="n">
         <v>0.6870384216308594</v>
@@ -516,7 +516,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.556100895363858</v>
+        <v>4.682467936930243</v>
       </c>
       <c r="E3" t="n">
         <v>0.3672370910644531</v>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>7.776586340087643</v>
+        <v>7.585811945099547</v>
       </c>
       <c r="E4" t="n">
         <v>0.7109947204589844</v>
@@ -572,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>2.701980464880277</v>
+        <v>2.673597069558221</v>
       </c>
       <c r="E5" t="n">
         <v>0.7085838317871094</v>
@@ -600,7 +600,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>6.534970019730761</v>
+        <v>6.336705920779442</v>
       </c>
       <c r="E6" t="n">
         <v>0.9394683837890625</v>
@@ -628,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>4.442571288962635</v>
+        <v>4.267864970231455</v>
       </c>
       <c r="E7" t="n">
         <v>0.5989227294921875</v>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>4.165599228028548</v>
+        <v>4.083480003419979</v>
       </c>
       <c r="E8" t="n">
         <v>0.4844169616699219</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>4.144788819357901</v>
+        <v>4.466743522907681</v>
       </c>
       <c r="E9" t="n">
         <v>0.80615234375</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>3.226374356246446</v>
+        <v>4.053967625172376</v>
       </c>
       <c r="E10" t="n">
         <v>5.049827575683594</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>4.295059934127355</v>
+        <v>5.186164595189623</v>
       </c>
       <c r="E11" t="n">
         <v>6.877552032470703</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>3.560798678756982</v>
+        <v>3.620455656259037</v>
       </c>
       <c r="E12" t="n">
         <v>0.7384262084960938</v>
@@ -796,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>3.674802572604404</v>
+        <v>3.626659893355831</v>
       </c>
       <c r="E13" t="n">
         <v>0.9195671081542969</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>7.490147075383995</v>
+        <v>7.692526299970658</v>
       </c>
       <c r="E14" t="n">
         <v>0.3923072814941406</v>
@@ -852,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>2.73088054150373</v>
+        <v>2.714071827160768</v>
       </c>
       <c r="E15" t="n">
         <v>13.40074157714844</v>

--- a/train_results.xlsx
+++ b/train_results.xlsx
@@ -488,7 +488,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>3.188409919706385</v>
+        <v>2.968795303656317</v>
       </c>
       <c r="E2" t="n">
         <v>0.6870384216308594</v>
@@ -516,7 +516,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.682467936930243</v>
+        <v>4.556100895363858</v>
       </c>
       <c r="E3" t="n">
         <v>0.3672370910644531</v>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>7.585811945099547</v>
+        <v>7.776586340087643</v>
       </c>
       <c r="E4" t="n">
         <v>0.7109947204589844</v>
@@ -572,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>2.673597069558221</v>
+        <v>2.701980464880277</v>
       </c>
       <c r="E5" t="n">
         <v>0.7085838317871094</v>
@@ -600,7 +600,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>6.336705920779442</v>
+        <v>6.534970019730761</v>
       </c>
       <c r="E6" t="n">
         <v>0.9394683837890625</v>
@@ -628,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>4.267864970231455</v>
+        <v>4.442571288962635</v>
       </c>
       <c r="E7" t="n">
         <v>0.5989227294921875</v>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>4.083480003419979</v>
+        <v>4.165599228028548</v>
       </c>
       <c r="E8" t="n">
         <v>0.4844169616699219</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>4.466743522907681</v>
+        <v>4.144788819357901</v>
       </c>
       <c r="E9" t="n">
         <v>0.80615234375</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>4.053967625172376</v>
+        <v>3.226374356246446</v>
       </c>
       <c r="E10" t="n">
         <v>5.049827575683594</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>5.186164595189623</v>
+        <v>4.295059934127355</v>
       </c>
       <c r="E11" t="n">
         <v>6.877552032470703</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>3.620455656259037</v>
+        <v>3.560798678756982</v>
       </c>
       <c r="E12" t="n">
         <v>0.7384262084960938</v>
@@ -796,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>3.626659893355831</v>
+        <v>3.674802572604404</v>
       </c>
       <c r="E13" t="n">
         <v>0.9195671081542969</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>7.692526299970658</v>
+        <v>7.490147075383995</v>
       </c>
       <c r="E14" t="n">
         <v>0.3923072814941406</v>
@@ -852,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>2.714071827160768</v>
+        <v>2.73088054150373</v>
       </c>
       <c r="E15" t="n">
         <v>13.40074157714844</v>
